--- a/Simple BOM.xlsx
+++ b/Simple BOM.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="16140" windowHeight="4245"/>
+    <workbookView windowHeight="18660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>Designator</t>
   </si>
@@ -30,6 +31,9 @@
     <t>Manufacturer</t>
   </si>
   <si>
+    <t>Handpeice connector</t>
+  </si>
+  <si>
     <t>RPC1-12RB-6P(71)</t>
   </si>
   <si>
@@ -45,9 +49,6 @@
     <t>RICHTEK</t>
   </si>
   <si>
-    <t>Handpeice connector</t>
-  </si>
-  <si>
     <t>5V Buck Regulator</t>
   </si>
   <si>
@@ -75,7 +76,10 @@
     <t>SG Micro</t>
   </si>
   <si>
-    <t>Integrated I2C/SMBus Temperature Sensor</t>
+    <t>Integrated I2C Temperature Sensor</t>
+  </si>
+  <si>
+    <t>LM75B</t>
   </si>
   <si>
     <t>NXP/PHILLIPS</t>
@@ -112,9 +116,6 @@
   </si>
   <si>
     <t>TPS43060</t>
-  </si>
-  <si>
-    <t>SA56004X</t>
   </si>
   <si>
     <t>Dual 30V 30A N-Channel MOSFET</t>
@@ -129,14 +130,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,27 +168,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="Currency[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -221,71 +248,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,8 +445,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -455,28 +482,70 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="39.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="17.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,29 +559,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -523,7 +592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -534,7 +603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -545,62 +614,62 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -612,31 +681,42 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Simple BOM.xlsx
+++ b/Simple BOM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>Designator</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Vishay Siliconix</t>
+  </si>
+  <si>
+    <t>10Mhz 3225 Crystal Resonator</t>
+  </si>
+  <si>
+    <t>Various</t>
   </si>
 </sst>
 </file>
@@ -132,22 +138,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -172,19 +173,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -503,11 +504,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -531,10 +532,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -678,6 +679,17 @@
       </c>
       <c r="D12" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
